--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Norns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0A274-8FB4-42A9-94F9-586F1C48F7E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA9083-74B0-4B75-ADCA-A22C76652BA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="5988" xr2:uid="{5AD70637-19FB-4F27-9184-5081706D050D}"/>
   </bookViews>
@@ -387,10 +387,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Norns!$A$2:$A$58</c:f>
+              <c:f>Norns!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -477,100 +477,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Norns!$B$2:$B$58</c:f>
+              <c:f>Norns!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -656,90 +572,6 @@
                   <c:v>0.97193429661948572</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0280657033805143</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0547240752013582</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.0786383533837685</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.0986093761623492</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1136357130632542</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.1229638808097528</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.12612612612</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1229638808097528</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1136357130632542</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0986093761623492</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.0786383533837685</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.0547240752013582</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0280657033805145</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9719342966194856</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.94527592479864175</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.92136164661623154</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.90139062383765078</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.88636428693674585</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.87703611919024704</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.87387387388000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.87703611919024704</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.88636428693674585</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.90139062383765067</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.92136164661623154</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.94527592479864164</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.9719342966194856</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -780,10 +612,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Norns!$A$2:$A$58</c:f>
+              <c:f>Norns!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -870,100 +702,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Norns!$C$2:$C$58</c:f>
+              <c:f>Norns!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.89077157069916002</c:v>
                 </c:pt>
@@ -1049,90 +797,6 @@
                   <c:v>0.90754300716108938</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.89077157069916002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.87947730378057498</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.87422654810938361</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.87528259850018564</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.88259250017670388</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.89578970414538661</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.91421244749251929</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.93693693693999991</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.96282367169772765</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.99057458279135924</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0187981236609467</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.046079048116046</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.0710493766892579</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0924569928389107</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.1092284293008399</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.120522696219425</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.1257734518906164</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1247174014998143</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1174074998232961</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.1042102958546134</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0857875525074807</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.06306306306</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0371763283022724</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.009425417208641</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.98120187633905331</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.95392095188395409</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.92895062331074196</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.90754300716108938</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>0.89077157069916002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1173,10 +837,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Norns!$A$2:$A$58</c:f>
+              <c:f>Norns!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1263,100 +927,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Norns!$D$2:$D$58</c:f>
+              <c:f>Norns!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.1092284293008401</c:v>
                 </c:pt>
@@ -1442,90 +1022,6 @@
                   <c:v>1.120522696219425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1092284293008401</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0924569928389107</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0710493766892581</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.046079048116046</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.0187981236609469</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.99057458279135924</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.96282367169772776</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.93693693694000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.9142124474925194</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.89578970414538672</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.88259250017670399</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.87528259850018564</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.87422654810938361</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.87947730378057498</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.89077157069915991</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.90754300716108915</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.92895062331074185</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.95392095188395398</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.98120187633905309</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.0094254172086408</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0371763283022724</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.06306306306</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0857875525074807</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.1042102958546134</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1174074998232959</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1247174014998143</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1257734518906164</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.120522696219425</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>1.1092284293008401</c:v>
                 </c:pt>
               </c:numCache>
@@ -1660,6 +1156,8 @@
         <c:axId val="442281448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1300000000000001"/>
+          <c:min val="0.87000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2742,7 +2240,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Norns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA9083-74B0-4B75-ADCA-A22C76652BA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F149D-AB18-4B36-94A6-FBDF3BC0935D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="5988" xr2:uid="{5AD70637-19FB-4F27-9184-5081706D050D}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>Reference timestamp</t>
   </si>
   <si>
-    <t>Min Collateral Ratio</t>
-  </si>
-  <si>
-    <t>Your backing collateral</t>
-  </si>
-  <si>
     <t>Verthandi variables</t>
   </si>
   <si>
@@ -87,7 +81,13 @@
     <t>Future</t>
   </si>
   <si>
-    <t>Max daily inflation rate</t>
+    <t>Lowest value</t>
+  </si>
+  <si>
+    <t>Highest value</t>
+  </si>
+  <si>
+    <t>Max daily 'inflation' rate</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,12 +258,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -266,6 +268,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -491,85 +510,85 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0280657033805143</c:v>
+                  <c:v>1.011800352558222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0547240752013582</c:v>
+                  <c:v>1.0230089861651936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0786383533837685</c:v>
+                  <c:v>1.0330638531286833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0986093761623492</c:v>
+                  <c:v>1.0414607604336736</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1136357130632542</c:v>
+                  <c:v>1.0477786520854613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1229638808097531</c:v>
+                  <c:v>1.0517007226154074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.12612612612</c:v>
+                  <c:v>1.0530303030299999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1229638808097531</c:v>
+                  <c:v>1.0517007226154074</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1136357130632542</c:v>
+                  <c:v>1.0477786520854613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0986093761623492</c:v>
+                  <c:v>1.0414607604336739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0786383533837685</c:v>
+                  <c:v>1.0330638531286833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0547240752013582</c:v>
+                  <c:v>1.0230089861651936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0280657033805143</c:v>
+                  <c:v>1.011800352558222</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97193429661948572</c:v>
+                  <c:v>0.98819964744177802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94527592479864175</c:v>
+                  <c:v>0.97699101383480647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92136164661623154</c:v>
+                  <c:v>0.96693614687131668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90139062383765078</c:v>
+                  <c:v>0.95853923956632625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88636428693674585</c:v>
+                  <c:v>0.95222134791453872</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.87703611919024704</c:v>
+                  <c:v>0.94829927738459263</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.87387387388000004</c:v>
+                  <c:v>0.94696969697</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.87703611919024704</c:v>
+                  <c:v>0.94829927738459263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88636428693674585</c:v>
+                  <c:v>0.95222134791453872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90139062383765067</c:v>
+                  <c:v>0.95853923956632625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92136164661623154</c:v>
+                  <c:v>0.96693614687131668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.94527592479864164</c:v>
+                  <c:v>0.97699101383480647</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97193429661948572</c:v>
+                  <c:v>0.98819964744177802</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -713,91 +732,91 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.89077157069916002</c:v>
+                  <c:v>0.95407441040563312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87947730378057498</c:v>
+                  <c:v>0.94932568454193367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87422654810938361</c:v>
+                  <c:v>0.94711798045281537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87528259850018564</c:v>
+                  <c:v>0.94756200163987614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88259250017670399</c:v>
+                  <c:v>0.95063548302672585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89578970414538661</c:v>
+                  <c:v>0.95618430742288707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91421244749251929</c:v>
+                  <c:v>0.96393023360326335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93693693693999991</c:v>
+                  <c:v>0.97348484848499994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96282367169772765</c:v>
+                  <c:v>0.98436904378132928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99057458279135924</c:v>
+                  <c:v>0.99603704049165165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0187981236609467</c:v>
+                  <c:v>1.0079037565396005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.046079048116046</c:v>
+                  <c:v>1.0193741452314404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0710493766892581</c:v>
+                  <c:v>1.029873033381991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0924569928389107</c:v>
+                  <c:v>1.0388739628998445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1092284293008401</c:v>
+                  <c:v>1.0459255895943669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.120522696219425</c:v>
+                  <c:v>1.0506743154580664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1257734518906164</c:v>
+                  <c:v>1.0528820195471846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1247174014998143</c:v>
+                  <c:v>1.0524379983601237</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1174074998232961</c:v>
+                  <c:v>1.0493645169732742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1042102958546134</c:v>
+                  <c:v>1.0438156925771129</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0857875525074807</c:v>
+                  <c:v>1.0360697663967366</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.06306306306</c:v>
+                  <c:v>1.0265151515149999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0371763283022724</c:v>
+                  <c:v>1.0156309562186707</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0094254172086408</c:v>
+                  <c:v>1.0039629595083484</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9812018763390532</c:v>
+                  <c:v>0.9920962434603996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95392095188395409</c:v>
+                  <c:v>0.98062585476855946</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92895062331074196</c:v>
+                  <c:v>0.97012696661800901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90754300716108938</c:v>
+                  <c:v>0.96112603710015565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.89077157069916002</c:v>
+                  <c:v>0.95407441040563312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,91 +957,91 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>1.1092284293008401</c:v>
+                  <c:v>1.0459255895943669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0924569928389107</c:v>
+                  <c:v>1.0388739628998445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0710493766892581</c:v>
+                  <c:v>1.029873033381991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.046079048116046</c:v>
+                  <c:v>1.0193741452314407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0187981236609469</c:v>
+                  <c:v>1.0079037565396005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99057458279135924</c:v>
+                  <c:v>0.99603704049165165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96282367169772776</c:v>
+                  <c:v>0.98436904378132928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93693693694000002</c:v>
+                  <c:v>0.97348484848500005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91421244749251929</c:v>
+                  <c:v>0.96393023360326335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89578970414538672</c:v>
+                  <c:v>0.95618430742288707</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88259250017670399</c:v>
+                  <c:v>0.95063548302672585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87528259850018564</c:v>
+                  <c:v>0.94756200163987614</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87422654810938361</c:v>
+                  <c:v>0.94711798045281537</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87947730378057498</c:v>
+                  <c:v>0.94932568454193356</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89077157069915991</c:v>
+                  <c:v>0.95407441040563312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90754300716108927</c:v>
+                  <c:v>0.96112603710015554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92895062331074185</c:v>
+                  <c:v>0.9701269666180089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95392095188395398</c:v>
+                  <c:v>0.98062585476855946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98120187633905309</c:v>
+                  <c:v>0.99209624346039949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0094254172086408</c:v>
+                  <c:v>1.0039629595083484</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0371763283022724</c:v>
+                  <c:v>1.0156309562186707</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.06306306306</c:v>
+                  <c:v>1.0265151515149999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0857875525074807</c:v>
+                  <c:v>1.0360697663967366</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1042102958546134</c:v>
+                  <c:v>1.0438156925771129</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1174074998232961</c:v>
+                  <c:v>1.0493645169732742</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1247174014998143</c:v>
+                  <c:v>1.0524379983601237</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1257734518906164</c:v>
+                  <c:v>1.0528820195471846</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.120522696219425</c:v>
+                  <c:v>1.0506743154580664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1092284293008401</c:v>
+                  <c:v>1.0459255895943669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,8 +1175,8 @@
         <c:axId val="442281448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1300000000000001"/>
-          <c:min val="0.87000000000000011"/>
+          <c:max val="1.06"/>
+          <c:min val="0.94000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1902,15 +1921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>602672</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>141516</xdr:rowOff>
+      <xdr:colOff>602673</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>849084</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>2971</xdr:rowOff>
+      <xdr:colOff>849085</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2237,25 +2256,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145EE94B-BFFA-4252-AC30-535F7E1FABE9}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.109375" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2280,15 +2300,8 @@
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1">
-        <f>((1 - (G2-(J2/100))/(G2+(J2/100)))/G3)*100</f>
-        <v>0.79999999996549465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -2298,11 +2311,11 @@
       </c>
       <c r="C2" s="6">
         <f>($G$2 + (($G$2 * ($J$6/100)) * SIN((MOD((($A2 - $J$7)/$G$3), 1) * $G$3) * ((2 * PI())/$G$3))))</f>
-        <v>0.89077157069916002</v>
+        <v>0.95407441040563312</v>
       </c>
       <c r="D2" s="6">
         <f>($G$2 + (($G$2 * ($J$10/100)) * SIN((MOD((($A2 - $J$11)/$G$3), 1) * $G$3) * ((2 * PI())/$G$3))))</f>
-        <v>1.1092284293008401</v>
+        <v>1.0459255895943669</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -2314,317 +2327,328 @@
         <v>8</v>
       </c>
       <c r="J2" s="10">
-        <v>12.612612612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.3030303029999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B58" si="0">($G$2 + (($G$2 * ($J$2/100)) * SIN((MOD((($A3 - $J$3)/$G$3), 1) * $G$3) * ((2 * PI())/$G$3))))</f>
-        <v>1.0280657033805143</v>
+        <v>1.011800352558222</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C58" si="1">($G$2 + (($G$2 * ($J$6/100)) * SIN((MOD((($A3 - $J$7)/$G$3), 1) * $G$3) * ((2 * PI())/$G$3))))</f>
-        <v>0.87947730378057498</v>
+        <v>0.94932568454193367</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D58" si="2">($G$2 + (($G$2 * ($J$10/100)) * SIN((MOD((($A3 - $J$11)/$G$3), 1) * $G$3) * ((2 * PI())/$G$3))))</f>
-        <v>1.0924569928389107</v>
+        <v>1.0388739628998445</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="25">
         <v>28</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>1.0547240752013582</v>
+        <v>1.0230089861651936</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>0.87422654810938361</v>
+        <v>0.94711798045281537</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="2"/>
-        <v>1.0710493766892581</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.029873033381991</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>1.0786383533837685</v>
+        <v>1.0330638531286833</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>0.87528259850018564</v>
+        <v>0.94756200163987614</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="2"/>
-        <v>1.046079048116046</v>
-      </c>
-      <c r="F5" s="12" t="s">
+        <v>1.0193741452314407</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13">
-        <v>5</v>
+      <c r="G5" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>1.0986093761623492</v>
+        <v>1.0414607604336736</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>0.88259250017670399</v>
+        <v>0.95063548302672585</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="2"/>
-        <v>1.0187981236609469</v>
+        <v>1.0079037565396005</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="10">
-        <v>12.612612612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.3030303029999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>1.1136357130632542</v>
+        <v>1.0477786520854613</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>0.89578970414538661</v>
+        <v>0.95618430742288707</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="2"/>
-        <v>0.99057458279135924</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="16" t="s">
+        <v>0.99603704049165165</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f>($G$3/3)*1</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>1.1229638808097531</v>
+        <v>1.0517007226154074</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>0.91421244749251929</v>
+        <v>0.96393023360326335</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="2"/>
-        <v>0.96282367169772776</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1</v>
+        <v>0.98436904378132928</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>1.12612612612</v>
+        <v>1.0530303030299999</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
-        <v>0.93693693693999991</v>
+        <v>0.97348484848499994</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="2"/>
-        <v>0.93693693694000002</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>17</v>
+        <v>0.97348484848500005</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>1.1229638808097531</v>
+        <v>1.0517007226154074</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>0.96282367169772765</v>
+        <v>0.98436904378132928</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="2"/>
-        <v>0.91421244749251929</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>19</v>
+        <v>0.96393023360326335</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="20">
+        <f>1-(J2/100)</f>
+        <v>0.94696969697</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="10">
-        <v>12.612612612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.3030303029999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>1.1136357130632542</v>
+        <v>1.0477786520854613</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99057458279135924</v>
+        <v>0.99603704049165165</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>0.89578970414538672</v>
-      </c>
-      <c r="I11" s="12" t="s">
+        <v>0.95618430742288707</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="15">
+        <f>1+(J2/100)</f>
+        <v>1.0530303030299999</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f>($G$3/3)*2</f>
         <v>18.666666666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>1.0986093761623492</v>
+        <v>1.0414607604336739</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="1"/>
-        <v>1.0187981236609467</v>
+        <v>1.0079037565396005</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>0.88259250017670399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.95063548302672585</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="17">
+        <f>(((G11/G10)-1)/(G3/2))*100</f>
+        <v>0.79999999999517124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>1.0786383533837685</v>
+        <v>1.0330638531286833</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="1"/>
-        <v>1.046079048116046</v>
+        <v>1.0193741452314404</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>0.87528259850018564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94756200163987614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>1.0547240752013582</v>
+        <v>1.0230089861651936</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="1"/>
-        <v>1.0710493766892581</v>
+        <v>1.029873033381991</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="2"/>
-        <v>0.87422654810938361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94711798045281537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>1.0280657033805143</v>
+        <v>1.011800352558222</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="1"/>
-        <v>1.0924569928389107</v>
+        <v>1.0388739628998445</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>0.87947730378057498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94932568454193356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2634,11 +2658,11 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" si="1"/>
-        <v>1.1092284293008401</v>
+        <v>1.0459255895943669</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="2"/>
-        <v>0.89077157069915991</v>
+        <v>0.95407441040563312</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2647,15 +2671,15 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.97193429661948572</v>
+        <v>0.98819964744177802</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="1"/>
-        <v>1.120522696219425</v>
+        <v>1.0506743154580664</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="2"/>
-        <v>0.90754300716108927</v>
+        <v>0.96112603710015554</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2664,15 +2688,15 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.94527592479864175</v>
+        <v>0.97699101383480647</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="1"/>
-        <v>1.1257734518906164</v>
+        <v>1.0528820195471846</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>0.92895062331074185</v>
+        <v>0.9701269666180089</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,15 +2705,15 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>0.92136164661623154</v>
+        <v>0.96693614687131668</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="1"/>
-        <v>1.1247174014998143</v>
+        <v>1.0524379983601237</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="2"/>
-        <v>0.95392095188395398</v>
+        <v>0.98062585476855946</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2698,15 +2722,15 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.90139062383765078</v>
+        <v>0.95853923956632625</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="1"/>
-        <v>1.1174074998232961</v>
+        <v>1.0493645169732742</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="2"/>
-        <v>0.98120187633905309</v>
+        <v>0.99209624346039949</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,15 +2739,15 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>0.88636428693674585</v>
+        <v>0.95222134791453872</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" si="1"/>
-        <v>1.1042102958546134</v>
+        <v>1.0438156925771129</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="2"/>
-        <v>1.0094254172086408</v>
+        <v>1.0039629595083484</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2732,15 +2756,15 @@
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
-        <v>0.87703611919024704</v>
+        <v>0.94829927738459263</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" si="1"/>
-        <v>1.0857875525074807</v>
+        <v>1.0360697663967366</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="2"/>
-        <v>1.0371763283022724</v>
+        <v>1.0156309562186707</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2749,15 +2773,15 @@
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
-        <v>0.87387387388000004</v>
+        <v>0.94696969697</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" si="1"/>
-        <v>1.06306306306</v>
+        <v>1.0265151515149999</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="2"/>
-        <v>1.06306306306</v>
+        <v>1.0265151515149999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,15 +2790,15 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
-        <v>0.87703611919024704</v>
+        <v>0.94829927738459263</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" si="1"/>
-        <v>1.0371763283022724</v>
+        <v>1.0156309562186707</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="2"/>
-        <v>1.0857875525074807</v>
+        <v>1.0360697663967366</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2783,15 +2807,15 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
-        <v>0.88636428693674585</v>
+        <v>0.95222134791453872</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="1"/>
-        <v>1.0094254172086408</v>
+        <v>1.0039629595083484</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="2"/>
-        <v>1.1042102958546134</v>
+        <v>1.0438156925771129</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2800,15 +2824,15 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>0.90139062383765067</v>
+        <v>0.95853923956632625</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="1"/>
-        <v>0.9812018763390532</v>
+        <v>0.9920962434603996</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="2"/>
-        <v>1.1174074998232961</v>
+        <v>1.0493645169732742</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2817,15 +2841,15 @@
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
-        <v>0.92136164661623154</v>
+        <v>0.96693614687131668</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="1"/>
-        <v>0.95392095188395409</v>
+        <v>0.98062585476855946</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="2"/>
-        <v>1.1247174014998143</v>
+        <v>1.0524379983601237</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2834,15 +2858,15 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
-        <v>0.94527592479864164</v>
+        <v>0.97699101383480647</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="1"/>
-        <v>0.92895062331074196</v>
+        <v>0.97012696661800901</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="2"/>
-        <v>1.1257734518906164</v>
+        <v>1.0528820195471846</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2851,15 +2875,15 @@
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
-        <v>0.97193429661948572</v>
+        <v>0.98819964744177802</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="1"/>
-        <v>0.90754300716108938</v>
+        <v>0.96112603710015565</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="2"/>
-        <v>1.120522696219425</v>
+        <v>1.0506743154580664</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2872,11 +2896,11 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" si="1"/>
-        <v>0.89077157069916002</v>
+        <v>0.95407441040563312</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="2"/>
-        <v>1.1092284293008401</v>
+        <v>1.0459255895943669</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2885,15 +2909,15 @@
       </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
-        <v>1.0280657033805143</v>
+        <v>1.011800352558222</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="1"/>
-        <v>0.87947730378057498</v>
+        <v>0.94932568454193367</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="2"/>
-        <v>1.0924569928389107</v>
+        <v>1.0388739628998445</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2902,15 +2926,15 @@
       </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
-        <v>1.0547240752013582</v>
+        <v>1.0230089861651936</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="1"/>
-        <v>0.87422654810938361</v>
+        <v>0.94711798045281537</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="2"/>
-        <v>1.0710493766892581</v>
+        <v>1.029873033381991</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2919,15 +2943,15 @@
       </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
-        <v>1.0786383533837685</v>
+        <v>1.0330638531286833</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="1"/>
-        <v>0.87528259850018564</v>
+        <v>0.94756200163987614</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="2"/>
-        <v>1.046079048116046</v>
+        <v>1.0193741452314407</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,15 +2960,15 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
-        <v>1.0986093761623492</v>
+        <v>1.0414607604336736</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" si="1"/>
-        <v>0.88259250017670388</v>
+        <v>0.95063548302672585</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="2"/>
-        <v>1.0187981236609469</v>
+        <v>1.0079037565396005</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,15 +2977,15 @@
       </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
-        <v>1.1136357130632542</v>
+        <v>1.0477786520854613</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" si="1"/>
-        <v>0.89578970414538661</v>
+        <v>0.95618430742288696</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="2"/>
-        <v>0.99057458279135924</v>
+        <v>0.99603704049165165</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2970,15 +2994,15 @@
       </c>
       <c r="B36" s="6">
         <f t="shared" si="0"/>
-        <v>1.1229638808097528</v>
+        <v>1.0517007226154074</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" si="1"/>
-        <v>0.91421244749251929</v>
+        <v>0.96393023360326335</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="2"/>
-        <v>0.96282367169772776</v>
+        <v>0.98436904378132928</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2987,15 +3011,15 @@
       </c>
       <c r="B37" s="6">
         <f t="shared" si="0"/>
-        <v>1.12612612612</v>
+        <v>1.0530303030299999</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" si="1"/>
-        <v>0.93693693693999991</v>
+        <v>0.97348484848499994</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="2"/>
-        <v>0.93693693694000002</v>
+        <v>0.97348484848500005</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3004,15 +3028,15 @@
       </c>
       <c r="B38" s="6">
         <f t="shared" si="0"/>
-        <v>1.1229638808097528</v>
+        <v>1.0517007226154074</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="1"/>
-        <v>0.96282367169772765</v>
+        <v>0.98436904378132928</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="2"/>
-        <v>0.9142124474925194</v>
+        <v>0.96393023360326346</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3021,15 +3045,15 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>1.1136357130632542</v>
+        <v>1.0477786520854613</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="1"/>
-        <v>0.99057458279135924</v>
+        <v>0.99603704049165165</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="2"/>
-        <v>0.89578970414538672</v>
+        <v>0.95618430742288707</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3038,15 +3062,15 @@
       </c>
       <c r="B40" s="6">
         <f t="shared" si="0"/>
-        <v>1.0986093761623492</v>
+        <v>1.0414607604336736</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="1"/>
-        <v>1.0187981236609467</v>
+        <v>1.0079037565396005</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="2"/>
-        <v>0.88259250017670399</v>
+        <v>0.95063548302672585</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3055,15 +3079,15 @@
       </c>
       <c r="B41" s="6">
         <f t="shared" si="0"/>
-        <v>1.0786383533837685</v>
+        <v>1.0330638531286833</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="1"/>
-        <v>1.046079048116046</v>
+        <v>1.0193741452314407</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="2"/>
-        <v>0.87528259850018564</v>
+        <v>0.94756200163987614</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,15 +3096,15 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" si="0"/>
-        <v>1.0547240752013582</v>
+        <v>1.0230089861651936</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" si="1"/>
-        <v>1.0710493766892579</v>
+        <v>1.029873033381991</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="2"/>
-        <v>0.87422654810938361</v>
+        <v>0.94711798045281537</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,15 +3113,15 @@
       </c>
       <c r="B43" s="6">
         <f t="shared" si="0"/>
-        <v>1.0280657033805145</v>
+        <v>1.011800352558222</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" si="1"/>
-        <v>1.0924569928389107</v>
+        <v>1.0388739628998445</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="2"/>
-        <v>0.87947730378057498</v>
+        <v>0.94932568454193356</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3110,11 +3134,11 @@
       </c>
       <c r="C44" s="6">
         <f t="shared" si="1"/>
-        <v>1.1092284293008399</v>
+        <v>1.0459255895943669</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="2"/>
-        <v>0.89077157069915991</v>
+        <v>0.95407441040563312</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3123,15 +3147,15 @@
       </c>
       <c r="B45" s="6">
         <f t="shared" si="0"/>
-        <v>0.9719342966194856</v>
+        <v>0.98819964744177802</v>
       </c>
       <c r="C45" s="6">
         <f t="shared" si="1"/>
-        <v>1.120522696219425</v>
+        <v>1.0506743154580664</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="2"/>
-        <v>0.90754300716108915</v>
+        <v>0.96112603710015554</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3140,15 +3164,15 @@
       </c>
       <c r="B46" s="6">
         <f t="shared" si="0"/>
-        <v>0.94527592479864175</v>
+        <v>0.97699101383480647</v>
       </c>
       <c r="C46" s="6">
         <f t="shared" si="1"/>
-        <v>1.1257734518906164</v>
+        <v>1.0528820195471846</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="2"/>
-        <v>0.92895062331074185</v>
+        <v>0.9701269666180089</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3157,15 +3181,15 @@
       </c>
       <c r="B47" s="6">
         <f t="shared" si="0"/>
-        <v>0.92136164661623154</v>
+        <v>0.96693614687131668</v>
       </c>
       <c r="C47" s="6">
         <f t="shared" si="1"/>
-        <v>1.1247174014998143</v>
+        <v>1.0524379983601237</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="2"/>
-        <v>0.95392095188395398</v>
+        <v>0.98062585476855946</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3174,15 +3198,15 @@
       </c>
       <c r="B48" s="6">
         <f t="shared" si="0"/>
-        <v>0.90139062383765078</v>
+        <v>0.95853923956632625</v>
       </c>
       <c r="C48" s="6">
         <f t="shared" si="1"/>
-        <v>1.1174074998232961</v>
+        <v>1.0493645169732742</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="2"/>
-        <v>0.98120187633905309</v>
+        <v>0.99209624346039949</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,15 +3215,15 @@
       </c>
       <c r="B49" s="6">
         <f t="shared" si="0"/>
-        <v>0.88636428693674585</v>
+        <v>0.95222134791453872</v>
       </c>
       <c r="C49" s="6">
         <f t="shared" si="1"/>
-        <v>1.1042102958546134</v>
+        <v>1.0438156925771129</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="2"/>
-        <v>1.0094254172086408</v>
+        <v>1.0039629595083484</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3208,15 +3232,15 @@
       </c>
       <c r="B50" s="6">
         <f t="shared" si="0"/>
-        <v>0.87703611919024704</v>
+        <v>0.94829927738459263</v>
       </c>
       <c r="C50" s="6">
         <f t="shared" si="1"/>
-        <v>1.0857875525074807</v>
+        <v>1.0360697663967366</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="2"/>
-        <v>1.0371763283022724</v>
+        <v>1.0156309562186707</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,15 +3249,15 @@
       </c>
       <c r="B51" s="6">
         <f t="shared" si="0"/>
-        <v>0.87387387388000004</v>
+        <v>0.94696969697</v>
       </c>
       <c r="C51" s="6">
         <f t="shared" si="1"/>
-        <v>1.06306306306</v>
+        <v>1.0265151515149999</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="2"/>
-        <v>1.06306306306</v>
+        <v>1.0265151515149999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3242,15 +3266,15 @@
       </c>
       <c r="B52" s="6">
         <f t="shared" si="0"/>
-        <v>0.87703611919024704</v>
+        <v>0.94829927738459263</v>
       </c>
       <c r="C52" s="6">
         <f t="shared" si="1"/>
-        <v>1.0371763283022724</v>
+        <v>1.0156309562186707</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="2"/>
-        <v>1.0857875525074807</v>
+        <v>1.0360697663967366</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3259,15 +3283,15 @@
       </c>
       <c r="B53" s="6">
         <f t="shared" si="0"/>
-        <v>0.88636428693674585</v>
+        <v>0.95222134791453872</v>
       </c>
       <c r="C53" s="6">
         <f t="shared" si="1"/>
-        <v>1.009425417208641</v>
+        <v>1.0039629595083484</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="2"/>
-        <v>1.1042102958546134</v>
+        <v>1.0438156925771129</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3276,15 +3300,15 @@
       </c>
       <c r="B54" s="6">
         <f t="shared" si="0"/>
-        <v>0.90139062383765067</v>
+        <v>0.95853923956632625</v>
       </c>
       <c r="C54" s="6">
         <f t="shared" si="1"/>
-        <v>0.98120187633905331</v>
+        <v>0.9920962434603996</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="2"/>
-        <v>1.1174074998232959</v>
+        <v>1.0493645169732742</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3293,15 +3317,15 @@
       </c>
       <c r="B55" s="6">
         <f t="shared" si="0"/>
-        <v>0.92136164661623154</v>
+        <v>0.96693614687131668</v>
       </c>
       <c r="C55" s="6">
         <f t="shared" si="1"/>
-        <v>0.95392095188395409</v>
+        <v>0.98062585476855946</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="2"/>
-        <v>1.1247174014998143</v>
+        <v>1.0524379983601237</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,15 +3334,15 @@
       </c>
       <c r="B56" s="6">
         <f t="shared" si="0"/>
-        <v>0.94527592479864164</v>
+        <v>0.97699101383480647</v>
       </c>
       <c r="C56" s="6">
         <f t="shared" si="1"/>
-        <v>0.92895062331074196</v>
+        <v>0.97012696661800901</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="2"/>
-        <v>1.1257734518906164</v>
+        <v>1.0528820195471846</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3327,15 +3351,15 @@
       </c>
       <c r="B57" s="6">
         <f t="shared" si="0"/>
-        <v>0.9719342966194856</v>
+        <v>0.98819964744177802</v>
       </c>
       <c r="C57" s="6">
         <f t="shared" si="1"/>
-        <v>0.90754300716108938</v>
+        <v>0.96112603710015565</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="2"/>
-        <v>1.120522696219425</v>
+        <v>1.0506743154580664</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3348,11 +3372,11 @@
       </c>
       <c r="C58" s="6">
         <f t="shared" si="1"/>
-        <v>0.89077157069916002</v>
+        <v>0.95407441040563312</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="2"/>
-        <v>1.1092284293008401</v>
+        <v>1.0459255895943669</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">

--- a/Simulator.xlsx
+++ b/Simulator.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Norns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F149D-AB18-4B36-94A6-FBDF3BC0935D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA6226E-7883-42DB-9ECA-5B6EF92C119D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="5988" xr2:uid="{5AD70637-19FB-4F27-9184-5081706D050D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5AD70637-19FB-4F27-9184-5081706D050D}"/>
   </bookViews>
   <sheets>
     <sheet name="Norns" sheetId="1" r:id="rId1"/>
+    <sheet name="Change over time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Timestamp</t>
   </si>
@@ -89,13 +90,44 @@
   <si>
     <t>Max daily 'inflation' rate</t>
   </si>
+  <si>
+    <t>U Diff</t>
+  </si>
+  <si>
+    <t>V Diff</t>
+  </si>
+  <si>
+    <t>S Diff</t>
+  </si>
+  <si>
+    <t>AVG DIFF</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>URTHR</t>
+  </si>
+  <si>
+    <t>Daily difference:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusions: </t>
+  </si>
+  <si>
+    <t>Urthr, Verthandi &amp; Skuld together avg a value of 1</t>
+  </si>
+  <si>
+    <t>Difference per second</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -228,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +317,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2256,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145EE94B-BFFA-4252-AC30-535F7E1FABE9}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,9 +2309,10 @@
     <col min="10" max="10" width="12.5546875" customWidth="1"/>
     <col min="12" max="12" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2300,8 +2337,9 @@
       <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -2329,8 +2367,9 @@
       <c r="J2" s="10">
         <v>5.3030303029999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2359,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2378,7 +2417,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2407,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -2436,7 +2475,7 @@
         <v>5.3030303029999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2466,7 +2505,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -2489,7 +2528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2512,7 +2551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2542,7 +2581,7 @@
         <v>5.3030303029999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2573,7 +2612,7 @@
         <v>18.666666666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -2597,7 +2636,7 @@
         <v>0.79999999999517124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2614,7 +2653,7 @@
         <v>0.94756200163987614</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -2631,7 +2670,7 @@
         <v>0.94711798045281537</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2648,7 +2687,7 @@
         <v>0.94932568454193356</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3395,4 +3434,886 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F0EB7F-F0ED-41F2-AD31-DEDFFC04984D}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.95407441040563312</v>
+      </c>
+      <c r="F2">
+        <v>1.0459255895943669</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:B31)/COUNT(B2:B31)</f>
+        <v>1.000393345085274</v>
+      </c>
+      <c r="K2">
+        <f>SUM(C2:C31)/COUNT(C2:C31)</f>
+        <v>7.7214332647662677E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.011800352558222</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3-B2)</f>
+        <v>1.1800352558221983E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.94932568454193367</v>
+      </c>
+      <c r="E3">
+        <f>ABS(D3-D2)</f>
+        <v>4.7487258636994545E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.0388739628998445</v>
+      </c>
+      <c r="G3">
+        <f>ABS(F3-F2)</f>
+        <v>7.0516266945224171E-3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>SUM(D2:D31)/COUNT(D2:D31)</f>
+        <v>0.99678000316491855</v>
+      </c>
+      <c r="K3">
+        <f>SUM(E2:E31)/COUNT(E2:E31)</f>
+        <v>7.4578208293944129E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.0230089861651936</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C31" si="0">ABS(B4-B3)</f>
+        <v>1.1208633606971663E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.94711798045281537</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E31" si="1">ABS(D4-D3)</f>
+        <v>2.2077040891183008E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.029873033381991</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G31" si="2">ABS(F4-F3)</f>
+        <v>9.0009295178534732E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>SUM(F2:F31)/COUNT(F2:F31)</f>
+        <v>1.0028266517498072</v>
+      </c>
+      <c r="K4">
+        <f>SUM(G2:G31)/COUNT(G2:G31)</f>
+        <v>7.5372312028710673E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.0330638531286833</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.0054866963489673E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.94756200163987614</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4.4402118706077243E-4</v>
+      </c>
+      <c r="F5">
+        <v>1.0193741452314407</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1.0498888150550334E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <f>SUM(J2:J4)/3</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>SUM(K2:K4)/3</f>
+        <v>7.572161765677249E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.0414607604336736</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.3969073049903198E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.95063548302672585</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3.073481386849708E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.0079037565396005</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1.1470388691840139E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.0477786520854613</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.3178916517876438E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.95618430742288707</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>5.5488243961612227E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.99603704049165165</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1.1866716047948866E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.0517007226154074</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.9220705299460867E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.96393023360326335</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7.7459261803762836E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.98436904378132928</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1.166799671032237E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <f>K5</f>
+        <v>7.572161765677249E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.0530303030299999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.3295804145925239E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.97348484848499994</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>9.5546148817365895E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.97348484848500005</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1.0884195296329224E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="27">
+        <f>J8/86400</f>
+        <v>8.7640761176820011E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.0517007226154074</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.3295804145925239E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.98436904378132928</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.0884195296329335E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.96393023360326335</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>9.5546148817367005E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.0477786520854613</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3.9220705299460867E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.99603704049165165</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.166799671032237E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.95618430742288707</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>7.7459261803762836E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.0414607604336739</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6.3178916517874217E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.0079037565396005</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.1866716047948866E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.95063548302672585</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>5.5488243961612227E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.0330638531286833</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8.3969073049905418E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.0193741452314404</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.1470388691839917E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.94756200163987614</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>3.073481386849708E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.0230089861651936</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.0054866963489673E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.029873033381991</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.0498888150550556E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.94711798045281537</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>4.4402118706077243E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1.011800352558222</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.1208633606971663E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.0388739628998445</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>9.0009295178534732E-3</v>
+      </c>
+      <c r="F15">
+        <v>0.94932568454193356</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.2077040891181898E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.1800352558221983E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.0459255895943669</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>7.0516266945224171E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.95407441040563312</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>4.7487258636995655E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.98819964744177802</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.1800352558221983E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.0506743154580664</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.7487258636995655E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.96112603710015554</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>7.0516266945224171E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.97699101383480647</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.1208633606971552E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.0528820195471846</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.2077040891181898E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.9701269666180089</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>9.0009295178533621E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.96693614687131668</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.0054866963489784E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.0524379983601237</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.4402118706088345E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.98062585476855946</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.0498888150550556E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.95853923956632625</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>8.3969073049904308E-3</v>
+      </c>
+      <c r="D20">
+        <v>1.0493645169732742</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3.0734813868495969E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.99209624346039949</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1.1470388691840028E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.95222134791453872</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>6.3178916517875328E-3</v>
+      </c>
+      <c r="D21">
+        <v>1.0438156925771129</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5.5488243961612227E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.0039629595083484</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1.1866716047948866E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.94829927738459263</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3.9220705299460867E-3</v>
+      </c>
+      <c r="D22">
+        <v>1.0360697663967366</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>7.7459261803762836E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.0156309562186707</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1.166799671032237E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.94696969697</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.3295804145926349E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.0265151515149999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>9.5546148817367005E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.0265151515149999</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1.0884195296329224E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.94829927738459263</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.3295804145926349E-3</v>
+      </c>
+      <c r="D24">
+        <v>1.0156309562186707</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.0884195296329224E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.0360697663967366</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>9.5546148817367005E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.95222134791453872</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.9220705299460867E-3</v>
+      </c>
+      <c r="D25">
+        <v>1.0039629595083484</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.166799671032237E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.0438156925771129</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>7.7459261803762836E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.95853923956632625</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6.3178916517875328E-3</v>
+      </c>
+      <c r="D26">
+        <v>0.9920962434603996</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.1866716047948755E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.0493645169732742</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>5.5488243961612227E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.96693614687131668</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>8.3969073049904308E-3</v>
+      </c>
+      <c r="D27">
+        <v>0.98062585476855946</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.1470388691840139E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.0524379983601237</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>3.0734813868495969E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.97699101383480647</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.0054866963489784E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.97012696661800901</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.0498888150550445E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.0528820195471846</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>4.4402118706088345E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.98819964744177802</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.1208633606971552E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.96112603710015565</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>9.0009295178533621E-3</v>
+      </c>
+      <c r="F29">
+        <v>1.0506743154580664</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2.2077040891181898E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.1800352558221983E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.95407441040563312</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>7.0516266945225281E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.0459255895943669</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>4.7487258636995655E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.011800352558222</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.1800352558221983E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.94932568454193367</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>4.7487258636994545E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.0388739628998445</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>7.0516266945224171E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>